--- a/Design Database.xlsx
+++ b/Design Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -59,9 +59,6 @@
     <t>history_id</t>
   </si>
   <si>
-    <t>subject_id</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
@@ -98,16 +95,13 @@
     <t>currentTime</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>subject_name</t>
+    <t>subject</t>
   </si>
 </sst>
 </file>
@@ -455,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
@@ -493,10 +487,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
@@ -507,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
@@ -518,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
@@ -532,24 +526,27 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
@@ -557,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
@@ -577,28 +574,22 @@
       <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="L15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
@@ -608,17 +599,17 @@
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Design Database.xlsx
+++ b/Design Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>User</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>subject_name</t>
   </si>
 </sst>
 </file>
@@ -449,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,13 +580,24 @@
       <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
